--- a/hotrod/docs/research/datetime-data-types-per-engine.xlsx
+++ b/hotrod/docs/research/datetime-data-types-per-engine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -143,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,6 +164,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -266,7 +273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -283,6 +290,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,30 +302,34 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -386,19 +401,19 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.6224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,242 +435,242 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="11" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="B13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="B14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -671,7 +686,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/hotrod/docs/research/datetime-data-types-per-engine.xlsx
+++ b/hotrod/docs/research/datetime-data-types-per-engine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
   <si>
     <t xml:space="preserve">Local Timeline</t>
   </si>
@@ -134,6 +134,138 @@
   </si>
   <si>
     <t xml:space="preserve">*1 This type does not make too much sense. A time with a time zone, should</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Method 
+&amp; Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setTimestamp()
+java.sql.Timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setObject()
+java.sql.Timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setObject()
+LocalDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setObject()
+OffsetDateTime</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">setObject()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ZonedDateTime</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle - DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apparently exact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle - TIMESTAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle - TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle - TIMESTAMP WITH LOCAL TIME ZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct, back in UTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB2 - TIMESTAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL - TIMESTAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL - TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Server - DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Server - DATETIME2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Server - SMALLDATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Server - DATETIMEOFFSET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MariaDB - DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MariaDB - TIMESTAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct, back in client’s offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data is saved and retrieved correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data is saved and retrieved correctly, but time offset is silently dropped and readded by app. Could be susceptible to different apps runnning in different time zones or offsets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test should work, but errors out. Hopefully, it will work in the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test fails, producing a wrong value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test combination does not make sense, so the test was skipped.</t>
   </si>
 </sst>
 </file>
@@ -143,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -186,8 +318,28 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF9900"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF007826"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +376,12 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
@@ -273,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,14 +480,62 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -342,7 +548,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF007826"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -399,21 +605,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.34"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2397959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,6 +885,440 @@
         <v>34</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0"/>
+      <c r="C20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="0"/>
+      <c r="C21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="0"/>
+      <c r="C22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="0"/>
+      <c r="C23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
@@ -686,7 +1326,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/hotrod/docs/research/datetime-data-types-per-engine.xlsx
+++ b/hotrod/docs/research/datetime-data-types-per-engine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="85">
   <si>
     <t xml:space="preserve">Local Timeline</t>
   </si>
@@ -136,6 +136,12 @@
     <t xml:space="preserve">*1 This type does not make too much sense. A time with a time zone, should</t>
   </si>
   <si>
+    <t xml:space="preserve">Old Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java 8 / JDBC 4.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Timeline</t>
   </si>
   <si>
@@ -165,26 +171,8 @@
 OffsetDateTime</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">setObject()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ZonedDateTime</t>
-    </r>
+    <t xml:space="preserve">setObject()
+ZonedDateTime</t>
   </si>
   <si>
     <t xml:space="preserve">Oracle - DATE</t>
@@ -247,7 +235,43 @@
     <t xml:space="preserve">correct, back in client’s offset</t>
   </si>
   <si>
+    <t xml:space="preserve">MySQL - DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL - TIMESTAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sybase ASE - DATETIME</t>
+  </si>
+  <si>
     <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sybase ASE - SMALLDATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sybase ASE - BIGDATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2 - TIMESTAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2 - TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2 - DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2 - SMALLDATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperSQL - TIMESTAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperSQL - TIMESTAMP WITH TIME ZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby - TIMESTAMP</t>
   </si>
   <si>
     <t xml:space="preserve">Legend</t>
@@ -275,7 +299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -320,12 +344,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -339,7 +357,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,7 +385,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE7F5"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -378,12 +396,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFF6F9D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -405,6 +435,69 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -431,7 +524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -480,27 +573,75 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,19 +649,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,19 +701,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -557,7 +738,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -605,21 +786,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2397959183673"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,448 +1067,578 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="D19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="B20" s="0"/>
-      <c r="C20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="E20" s="18" t="s">
         <v>43</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="0"/>
-      <c r="C21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>46</v>
+      <c r="C21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0"/>
-      <c r="C22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>46</v>
+      <c r="C22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="0"/>
-      <c r="C23" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>46</v>
+      <c r="C23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" s="0"/>
-      <c r="C24" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>51</v>
+      <c r="C24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="0"/>
-      <c r="C25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>53</v>
+      <c r="C25" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" s="0"/>
-      <c r="C26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>46</v>
+      <c r="C26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="0"/>
-      <c r="C27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="0"/>
-      <c r="C28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>46</v>
+      <c r="C28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="0"/>
-      <c r="C29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>46</v>
+      <c r="C29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" s="0"/>
-      <c r="C30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>46</v>
+      <c r="C30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="0"/>
-      <c r="C31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>53</v>
+      <c r="C31" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="0"/>
-      <c r="C32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>47</v>
+      <c r="C32" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="0"/>
-      <c r="C33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>63</v>
+      <c r="C33" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B34" s="0"/>
-      <c r="C34" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="C34" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B35" s="0"/>
-      <c r="C35" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="C35" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B36" s="0"/>
-      <c r="C36" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="C36" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B37" s="0"/>
-      <c r="C37" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="C37" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B38" s="0"/>
-      <c r="C38" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="C38" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>65</v>
-      </c>
+      <c r="A40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>66</v>
-      </c>
+      <c r="A41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="A42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>68</v>
-      </c>
+      <c r="A43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="A44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="0"/>
+      <c r="C44" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>70</v>
+      <c r="A45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="0"/>
+      <c r="C45" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
